--- a/TOAD/pcb/BOM/TOAD-BOM.xlsx
+++ b/TOAD/pcb/BOM/TOAD-BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOAD" sheetId="1" state="visible" r:id="rId2"/>
@@ -105,7 +105,7 @@
     <t xml:space="preserve">841-8759</t>
   </si>
   <si>
-    <t xml:space="preserve">252-163</t>
+    <t xml:space="preserve"> 426-1243</t>
   </si>
   <si>
     <t xml:space="preserve">SG32733</t>
@@ -363,15 +363,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -379,7 +379,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -387,7 +387,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -403,7 +403,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -411,7 +411,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -431,7 +431,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -463,7 +463,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -479,43 +479,43 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -537,7 +537,7 @@
   </sheetPr>
   <dimension ref="B2:O19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -841,22 +841,22 @@
   </sheetPr>
   <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="15" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="15" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="23.3724696356275"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="15" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="15" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2030,10 +2030,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -2150,19 +2150,19 @@
   </sheetPr>
   <dimension ref="B1:K6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="15" width="3"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="24.0283400809717"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="15" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.7125506072875"/>
@@ -2338,15 +2338,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
@@ -2471,13 +2471,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.0323886639676"/>
